--- a/export/_sites/standard.xlsx
+++ b/export/_sites/standard.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="ELPUMPS" sheetId="1" r:id="rId1"/>
-    <sheet name="KARCHER" sheetId="2" r:id="rId2"/>
-    <sheet name="MTD" sheetId="3" r:id="rId3"/>
+    <sheet name="ELPUMPS" sheetId="1" r:id="rId4"/>
+    <sheet name="KARCHER" sheetId="2" r:id="rId5"/>
+    <sheet name="MTD" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -65,18 +65,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.48988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
   </cols>
   <sheetData>
@@ -105,11 +105,11 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>CT 2274</t>
+          <t>BP 1/4</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>702000.0</v>
+        <v>2393600.0</v>
       </c>
     </row>
     <row r="3">
@@ -120,11 +120,11 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>CT 3274</t>
+          <t>BP 10</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>846000.0</v>
+        <v>3235100.0</v>
       </c>
     </row>
     <row r="4">
@@ -135,11 +135,11 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>CT 4274</t>
+          <t>BP 18/3</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>924000.0</v>
+        <v>3309900.0</v>
       </c>
     </row>
     <row r="5">
@@ -150,11 +150,11 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>JPV 1300</t>
+          <t>BT 4877 K</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1062000.0</v>
+        <v>2038300.0</v>
       </c>
     </row>
     <row r="6">
@@ -165,11 +165,11 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>JPV 900</t>
+          <t>BT 6877 K</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>996000.0</v>
+        <v>2711500.0</v>
       </c>
     </row>
     <row r="7">
@@ -180,11 +180,11 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>VB 25/1300</t>
+          <t>BTSZ 400</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1680000.0</v>
+        <v>2113100.0</v>
       </c>
     </row>
     <row r="8">
@@ -195,11 +195,11 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>VB 25/1500</t>
+          <t>BTSZ 400 INOX</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1890000.0</v>
+        <v>2281400.0</v>
       </c>
     </row>
     <row r="9">
@@ -210,11 +210,11 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>VB 25/900</t>
+          <t>CT 2274</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1590000.0</v>
+        <v>729300.0</v>
       </c>
     </row>
     <row r="10">
@@ -225,11 +225,221 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
+          <t>CT 3274</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>878900.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>CT 3274 W</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>878900.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>CT 3674</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>981750.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>CT 4274</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>963050.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>CT 4274 INOX</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1477300.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>CT 4274 W</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>963050.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>JPV 1300</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1103300.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>JPV 1300 INOX</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1280950.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>JPV 900</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1037850.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>VB 25/1300</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1748450.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>VB 25/1300 INOX</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2206600.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>VB 25/1500</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1963500.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>VB 25/900</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1654950.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>VB 50/1300</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2215950.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>ELPUMPS</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
           <t>VP 300</t>
         </is>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>564000.0</v>
+      <c r="C24" s="0" t="n">
+        <v>589050.0</v>
       </c>
     </row>
   </sheetData>
@@ -242,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -282,11 +492,11 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>K 2.120</t>
+          <t>DS 5800</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1327200.0</v>
+        <v>4090000.0</v>
       </c>
     </row>
     <row r="3">
@@ -297,11 +507,11 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>K 2.15</t>
+          <t>DS 6000</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1364400.0</v>
+        <v>3990000.0</v>
       </c>
     </row>
     <row r="4">
@@ -312,11 +522,11 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>K 2.300</t>
+          <t>GP 40</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1644000.0</v>
+        <v>1446500.0</v>
       </c>
     </row>
     <row r="5">
@@ -327,11 +537,11 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>K 2.325</t>
+          <t>GP 45</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1644000.0</v>
+        <v>2343600.0</v>
       </c>
     </row>
     <row r="6">
@@ -342,11 +552,11 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>K 2.425</t>
+          <t>GP 60</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1950000.0</v>
+        <v>3775300.0</v>
       </c>
     </row>
     <row r="7">
@@ -357,11 +567,11 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>K 3.200</t>
+          <t>GP 70</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2916000.0</v>
+        <v>3924800.0</v>
       </c>
     </row>
     <row r="8">
@@ -372,11 +582,11 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>K 3.500</t>
+          <t>K 2.120</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2952000.0</v>
+        <v>1327000.0</v>
       </c>
     </row>
     <row r="9">
@@ -387,11 +597,11 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>K 3.550</t>
+          <t>K 2.15</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3158000.0</v>
+        <v>1364300.0</v>
       </c>
     </row>
     <row r="10">
@@ -402,11 +612,11 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>K 3.80 MD</t>
+          <t>K 2.300</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>-1.0</v>
+        <v>1644700.0</v>
       </c>
     </row>
     <row r="11">
@@ -417,11 +627,11 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>K 4.600</t>
+          <t>K 2.325</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3532800.0</v>
+        <v>1644700.0</v>
       </c>
     </row>
     <row r="12">
@@ -432,11 +642,11 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>K 5.200</t>
+          <t>K 2.425</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3924000.0</v>
+        <v>1950800.0</v>
       </c>
     </row>
     <row r="13">
@@ -447,11 +657,11 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>K 5.520</t>
+          <t>K 2.800</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3906000.0</v>
+        <v>1981100.0</v>
       </c>
     </row>
     <row r="14">
@@ -462,11 +672,11 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>K 5.600</t>
+          <t>K 3.200</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4261200.0</v>
+        <v>2915500.0</v>
       </c>
     </row>
     <row r="15">
@@ -477,11 +687,11 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>K 5.700</t>
+          <t>K 3.500</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
-        <v>5233200.0</v>
+        <v>2952900.0</v>
       </c>
     </row>
     <row r="16">
@@ -492,11 +702,11 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>K 6.550</t>
+          <t>K 3.550</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
-        <v>6204000.0</v>
+        <v>3158600.0</v>
       </c>
     </row>
     <row r="17">
@@ -507,11 +717,11 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>K 6.600</t>
+          <t>K 3.80</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>6391200.0</v>
+        <v>2691300.0</v>
       </c>
     </row>
     <row r="18">
@@ -522,11 +732,11 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>K 7.200</t>
+          <t>K 4.600</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>6598800.0</v>
+        <v>3532400.0</v>
       </c>
     </row>
     <row r="19">
@@ -537,11 +747,11 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>K 7.650</t>
+          <t>K 5.200</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
-        <v>7438800.0</v>
+        <v>3924800.0</v>
       </c>
     </row>
     <row r="20">
@@ -552,11 +762,11 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>K 7.700</t>
+          <t>K 5.520</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>7774800.0</v>
+        <v>3906100.0</v>
       </c>
     </row>
     <row r="21">
@@ -567,11 +777,11 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>K 7.750</t>
+          <t>K 5.600</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>8409600.0</v>
+        <v>4261200.0</v>
       </c>
     </row>
     <row r="22">
@@ -582,11 +792,11 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>S 550</t>
+          <t>K 5.700</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1959600.0</v>
+        <v>5233100.0</v>
       </c>
     </row>
     <row r="23">
@@ -597,11 +807,11 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>S 650</t>
+          <t>K 55</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
-        <v>2222400.0</v>
+        <v>971000.0</v>
       </c>
     </row>
     <row r="24">
@@ -612,11 +822,11 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>S 750</t>
+          <t>K 6.200</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
-        <v>4491600.0</v>
+        <v>5259900.0</v>
       </c>
     </row>
     <row r="25">
@@ -627,11 +837,11 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>SC 1.020</t>
+          <t>K 6.550</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1869600.0</v>
+        <v>6204900.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,11 +852,11 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>SC 1.030</t>
+          <t>K 6.600</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
-        <v>3084000.0</v>
+        <v>6391900.0</v>
       </c>
     </row>
     <row r="27">
@@ -657,11 +867,11 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>SC 1.030 B</t>
+          <t>K 65</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
-        <v>3084000.0</v>
+        <v>971000.0</v>
       </c>
     </row>
     <row r="28">
@@ -672,11 +882,11 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>SC 2.500 C</t>
+          <t>K 7.200</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
-        <v>3252000.0</v>
+        <v>6599200.0</v>
       </c>
     </row>
     <row r="29">
@@ -687,11 +897,11 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>SC 2.600 C</t>
+          <t>K 7.650</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
-        <v>4074000.0</v>
+        <v>7438400.0</v>
       </c>
     </row>
     <row r="30">
@@ -702,11 +912,11 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>SC 2.600 CB</t>
+          <t>K 7.700</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
-        <v>4821600.0</v>
+        <v>7774900.0</v>
       </c>
     </row>
     <row r="31">
@@ -717,11 +927,11 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>SC 3.000</t>
+          <t>K 7.750</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>2149200.0</v>
+        <v>8410300.0</v>
       </c>
     </row>
     <row r="32">
@@ -732,11 +942,11 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>SC 3.100 B</t>
+          <t>S 550</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
-        <v>3445200.0</v>
+        <v>1960100.0</v>
       </c>
     </row>
     <row r="33">
@@ -747,11 +957,11 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>SC 4.100 C</t>
+          <t>S 650</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
-        <v>3931200.0</v>
+        <v>2222400.0</v>
       </c>
     </row>
     <row r="34">
@@ -762,11 +972,11 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>SC 4.100 CB</t>
+          <t>S 750</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
-        <v>4762800.0</v>
+        <v>4492000.0</v>
       </c>
     </row>
     <row r="35">
@@ -777,11 +987,11 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>SC 5.800 C</t>
+          <t>SC 1.020</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
-        <v>5532000.0</v>
+        <v>1869000.0</v>
       </c>
     </row>
     <row r="36">
@@ -792,11 +1002,11 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>SC 5.800 CB</t>
+          <t>SC 1.030</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
-        <v>6504000.0</v>
+        <v>3083800.0</v>
       </c>
     </row>
     <row r="37">
@@ -807,11 +1017,11 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>SC 6.800 C</t>
+          <t>SC 1.030 B</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
-        <v>6728400.0</v>
+        <v>2579200.0</v>
       </c>
     </row>
     <row r="38">
@@ -822,11 +1032,11 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>SC 6.800 CB</t>
+          <t>SC 2.500 C</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
-        <v>6230400.0</v>
+        <v>3252000.0</v>
       </c>
     </row>
     <row r="39">
@@ -837,11 +1047,11 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>SC 952</t>
+          <t>SC 2.600 C</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1065300.0</v>
+        <v>4074400.0</v>
       </c>
     </row>
     <row r="40">
@@ -852,11 +1062,11 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>SE 4001</t>
+          <t>SC 2.600 CB</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
-        <v>3246000.0</v>
+        <v>4821900.0</v>
       </c>
     </row>
     <row r="41">
@@ -867,11 +1077,11 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>SE 5.100</t>
+          <t>SC 3.000</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
-        <v>4212000.0</v>
+        <v>1799000.0</v>
       </c>
     </row>
     <row r="42">
@@ -882,11 +1092,11 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>SE 6.100</t>
+          <t>SC 3.100 B</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
-        <v>4309200.0</v>
+        <v>3445400.0</v>
       </c>
     </row>
     <row r="43">
@@ -897,11 +1107,11 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>SV 1802</t>
+          <t>SC 4.100 C</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
-        <v>8485200.0</v>
+        <v>3931500.0</v>
       </c>
     </row>
     <row r="44">
@@ -912,11 +1122,11 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>SV 1902</t>
+          <t>SC 4.100 CB</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
-        <v>9344400.0</v>
+        <v>4763100.0</v>
       </c>
     </row>
     <row r="45">
@@ -927,11 +1137,11 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>SV 1905</t>
+          <t>SC 5.800 C</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
-        <v>9666000.0</v>
+        <v>5532100.0</v>
       </c>
     </row>
     <row r="46">
@@ -942,11 +1152,11 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>VC 6100</t>
+          <t>SC 5.800 CB</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
-        <v>3591600.0</v>
+        <v>6504000.0</v>
       </c>
     </row>
     <row r="47">
@@ -957,11 +1167,11 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>VC 6300</t>
+          <t>SC 6.800 C</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
-        <v>4278000.0</v>
+        <v>6059200.0</v>
       </c>
     </row>
     <row r="48">
@@ -972,11 +1182,11 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>WD 2.200</t>
+          <t>SC 6.800 CB</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
-        <v>981600.0</v>
+        <v>6728800.0</v>
       </c>
     </row>
     <row r="49">
@@ -987,11 +1197,11 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>WD 3.200</t>
+          <t>SC 952</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1130000.0</v>
+        <v>1065300.0</v>
       </c>
     </row>
     <row r="50">
@@ -1002,11 +1212,11 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>WD 3.300 M</t>
+          <t>SCP 16000</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1444400.0</v>
+        <v>2766100.0</v>
       </c>
     </row>
     <row r="51">
@@ -1017,11 +1227,11 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>WD 3.500 P</t>
+          <t>SCP 6000</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1628700.0</v>
+        <v>844700.0</v>
       </c>
     </row>
     <row r="52">
@@ -1032,11 +1242,11 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>WD 4.200</t>
+          <t>SCP 7000</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1950600.0</v>
+        <v>1181200.0</v>
       </c>
     </row>
     <row r="53">
@@ -1047,11 +1257,11 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>WD 5.200 M</t>
+          <t>SDP 5000</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
-        <v>2213600.0</v>
+        <v>773800.0</v>
       </c>
     </row>
     <row r="54">
@@ -1062,11 +1272,11 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>WD 5.300</t>
+          <t>SDP 7000</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
-        <v>2409600.0</v>
+        <v>844700.0</v>
       </c>
     </row>
     <row r="55">
@@ -1077,11 +1287,11 @@
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>WD 5.600 MP</t>
+          <t>SE 4001</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
-        <v>3579600.0</v>
+        <v>3245800.0</v>
       </c>
     </row>
     <row r="56">
@@ -1092,11 +1302,11 @@
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>WD 7.200</t>
+          <t>SE 5.100</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
-        <v>2590800.0</v>
+        <v>4212300.0</v>
       </c>
     </row>
     <row r="57">
@@ -1107,11 +1317,11 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>WV 50</t>
+          <t>SE 6.100</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
-        <v>1172400.0</v>
+        <v>4309500.0</v>
       </c>
     </row>
     <row r="58">
@@ -1122,11 +1332,326 @@
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
+          <t>SV 1802</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>7650000.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>SV 1902</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>8410000.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>SV 1905</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>8690000.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>VC 6.150</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>3672200.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>VC 6100</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>3591200.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>VC 6300</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>4278100.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>WD 2.200</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>981200.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>WD 3.200</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1130300.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>WD 3.300 M</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1444400.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>WD 3.500 P</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1628700.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>WD 4.200</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1950600.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>WD 5.200 M</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2213600.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>WD 5.200 MP</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2967200.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>WD 5.300</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2409900.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>WD 5.300 M</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2900400.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>WD 5.600 MP</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3579500.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>WD 7.200</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2590300.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>WD 7.500</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>3540100.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>WD 7.700 P</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>4168100.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>WV 50</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1171900.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
           <t>WV 60</t>
         </is>
       </c>
-      <c r="C58" s="0" t="n">
-        <v>1254000.0</v>
+      <c r="C78" s="0" t="n">
+        <v>1254100.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>KARCHER</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>WV 75</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1123300.0</v>
       </c>
     </row>
   </sheetData>
@@ -1139,18 +1664,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.88988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.989887640449439"/>
   </cols>
   <sheetData>
@@ -1177,13 +1702,11 @@
           <t>MTD</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>1033 AST</t>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>1033</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2349000.0</v>
+        <v>2440350.0</v>
       </c>
     </row>
     <row r="3">
@@ -1192,13 +1715,11 @@
           <t>MTD</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>1043 AST</t>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>1043</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2556000.0</v>
+        <v>2655400.0</v>
       </c>
     </row>
     <row r="4">
@@ -1209,11 +1730,11 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>395 PO</t>
+          <t>32 E</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2511000.0</v>
+        <v>1009800.0</v>
       </c>
     </row>
     <row r="5">
@@ -1224,11 +1745,11 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>51 BO</t>
+          <t>38 E</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2547600.0</v>
+        <v>1355750.0</v>
       </c>
     </row>
     <row r="6">
@@ -1239,11 +1760,11 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>827 AST</t>
+          <t>395 PO</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2629000.0</v>
+        <v>2608650.0</v>
       </c>
     </row>
     <row r="7">
@@ -1254,11 +1775,11 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>990 AST</t>
+          <t>46 PB</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3339000.0</v>
+        <v>3590400.0</v>
       </c>
     </row>
     <row r="8">
@@ -1269,11 +1790,11 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>ADVANCE 53 SPKV HW</t>
+          <t>46 PO</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6822000.0</v>
+        <v>3216400.0</v>
       </c>
     </row>
     <row r="9">
@@ -1284,11 +1805,11 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BV3100</t>
+          <t>46 SPB</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2449000.0</v>
+        <v>4403850.0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,11 +1820,11 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>M53</t>
+          <t>46 SPB HW</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>6552000.0</v>
+        <v>4899400.0</v>
       </c>
     </row>
     <row r="11">
@@ -1314,11 +1835,11 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>M56</t>
+          <t>46 SPO</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>9081800.0</v>
+        <v>4142050.0</v>
       </c>
     </row>
     <row r="12">
@@ -1329,11 +1850,11 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>M61</t>
+          <t>51 BO</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
-        <v>10965000.0</v>
+        <v>2646050.0</v>
       </c>
     </row>
     <row r="13">
@@ -1344,11 +1865,11 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>ME61</t>
+          <t>53 SPB</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12194000.0</v>
+        <v>5722200.0</v>
       </c>
     </row>
     <row r="14">
@@ -1359,11 +1880,11 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>OPTIMA 46 PB</t>
+          <t>53 SPB HW</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3456000.0</v>
+        <v>6077500.0</v>
       </c>
     </row>
     <row r="15">
@@ -1374,11 +1895,11 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>OPTIMA 46 SPB</t>
+          <t>53 SPK HW</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4239000.0</v>
+        <v>6395400.0</v>
       </c>
     </row>
     <row r="16">
@@ -1389,11 +1910,11 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>OPTIMA 46 SPB HW</t>
+          <t>53 SPKV HW</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4716000.0</v>
+        <v>7087300.0</v>
       </c>
     </row>
     <row r="17">
@@ -1404,11 +1925,11 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>OPTIMA 53 SPB</t>
+          <t>53 SPO</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5508000.0</v>
+        <v>4955500.0</v>
       </c>
     </row>
     <row r="18">
@@ -1417,13 +1938,11 @@
           <t>MTD</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>OPTIMA 53 SPB HW</t>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>827</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>5850000.0</v>
+        <v>2730200.0</v>
       </c>
     </row>
     <row r="19">
@@ -1432,13 +1951,11 @@
           <t>MTD</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>OPTIMA LE 155 H RTG</t>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>990</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>31375000.0</v>
+        <v>3468850.0</v>
       </c>
     </row>
     <row r="20">
@@ -1449,11 +1966,11 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>OPTIMA LN 200 H RTG</t>
+          <t>BV 3100</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>38999000.0</v>
+        <v>2543200.0</v>
       </c>
     </row>
     <row r="21">
@@ -1464,11 +1981,11 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>OPTIMA ME66</t>
+          <t>LE 155</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>16334500.0</v>
+        <v>32594100.0</v>
       </c>
     </row>
     <row r="22">
@@ -1479,11 +1996,11 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>OPTIMA ME76</t>
+          <t>LN 200</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>20202000.0</v>
+        <v>40522900.0</v>
       </c>
     </row>
     <row r="23">
@@ -1494,11 +2011,11 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>SMART 32 E</t>
+          <t>M 53</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
-        <v>972000.0</v>
+        <v>6732000.0</v>
       </c>
     </row>
     <row r="24">
@@ -1509,11 +2026,11 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>SMART 38 E</t>
+          <t>M 56</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1305600.0</v>
+        <v>9331300.0</v>
       </c>
     </row>
     <row r="25">
@@ -1524,11 +2041,11 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>SMART 46 PO</t>
+          <t>M 61</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3096000.0</v>
+        <v>11266750.0</v>
       </c>
     </row>
     <row r="26">
@@ -1539,11 +2056,11 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>SMART 46 SPO</t>
+          <t>ME 61</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
-        <v>3987000.0</v>
+        <v>12529000.0</v>
       </c>
     </row>
     <row r="27">
@@ -1554,11 +2071,11 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>SMART 53 SPO</t>
+          <t>ME 66</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
-        <v>4770000.0</v>
+        <v>16783250.0</v>
       </c>
     </row>
     <row r="28">
@@ -1569,11 +2086,11 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>SMART RC 125</t>
+          <t>ME 76</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
-        <v>22347000.0</v>
+        <v>20757000.0</v>
       </c>
     </row>
     <row r="29">
@@ -1584,11 +2101,11 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>T/205</t>
+          <t>RC 125</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
-        <v>4445200.0</v>
+        <v>23216050.0</v>
       </c>
     </row>
     <row r="30">
@@ -1599,11 +2116,11 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>T/245</t>
+          <t>T 205</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
-        <v>5029200.0</v>
+        <v>4618900.0</v>
       </c>
     </row>
     <row r="31">
@@ -1614,11 +2131,11 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>T/330 B 700</t>
+          <t>T 245</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>6240000.0</v>
+        <v>5226650.0</v>
       </c>
     </row>
     <row r="32">
@@ -1629,11 +2146,11 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>T/330 M</t>
+          <t>T 330 B</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
-        <v>5994000.0</v>
+        <v>6479550.0</v>
       </c>
     </row>
     <row r="33">
@@ -1644,11 +2161,11 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>T/380 M</t>
+          <t>T 330 M</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
-        <v>7440000.0</v>
+        <v>6236450.0</v>
       </c>
     </row>
     <row r="34">
@@ -1659,11 +2176,26 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>VG40 BM</t>
+          <t>T 380 M</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
-        <v>5479000.0</v>
+        <v>7732450.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>VG 40</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>5694150.0</v>
       </c>
     </row>
   </sheetData>
